--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Subject</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Oliver</t>
   </si>
   <si>
-    <t>Done?</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -116,10 +113,43 @@
     <t xml:space="preserve"> - Materials</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Procedure</t>
-  </si>
-  <si>
     <t>Haagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Procedure(s)</t>
+  </si>
+  <si>
+    <t>Read?</t>
+  </si>
+  <si>
+    <t>Extra Work</t>
+  </si>
+  <si>
+    <t>Introduction fix table</t>
+  </si>
+  <si>
+    <t>Source on price of RAMIS</t>
+  </si>
+  <si>
+    <t>Include tools in Artefact model</t>
+  </si>
+  <si>
+    <t>Interview conclusions</t>
+  </si>
+  <si>
+    <t>Add Johan's interview</t>
+  </si>
+  <si>
+    <t>Rewrite rules</t>
+  </si>
+  <si>
+    <t>Merge interviews and obs.</t>
+  </si>
+  <si>
+    <t>Nicklas</t>
+  </si>
+  <si>
+    <t>Freddie</t>
   </si>
 </sst>
 </file>
@@ -490,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EBFDB9-AC42-4B2C-A0DE-44911FC47DD6}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
@@ -514,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,10 +557,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3">
         <v>43036</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>43036</v>
@@ -579,10 +612,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>43036</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
         <v>43036</v>
@@ -612,7 +648,7 @@
         <v>43036</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +662,7 @@
         <v>43036</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +676,7 @@
         <v>43036</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,17 +686,17 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,10 +708,93 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43042</v>
       </c>
     </row>
   </sheetData>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VGIS\Project Work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{5A5A73BC-E471-4697-A862-9129BAE7A79A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Subject</t>
   </si>
@@ -150,12 +145,21 @@
   </si>
   <si>
     <t>Freddie</t>
+  </si>
+  <si>
+    <t>ML + pres</t>
+  </si>
+  <si>
+    <t>CGP + pres</t>
+  </si>
+  <si>
+    <t>tba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,18 +516,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EBFDB9-AC42-4B2C-A0DE-44911FC47DD6}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +801,28 @@
         <v>43042</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Subject</t>
   </si>
@@ -36,9 +36,6 @@
     <t>3D Models</t>
   </si>
   <si>
-    <t>Scene (physical model)</t>
-  </si>
-  <si>
     <t>Scenario (rules)</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Methods</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Conclusion</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Stjernholm + Atanas</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Final System</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Test setup</t>
   </si>
   <si>
@@ -147,20 +138,59 @@
     <t>Freddie</t>
   </si>
   <si>
-    <t>ML + pres</t>
-  </si>
-  <si>
-    <t>CGP + pres</t>
-  </si>
-  <si>
-    <t>tba</t>
+    <t>Remake rules mindmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Final System (interview too)</t>
+  </si>
+  <si>
+    <t>Results (usability / expert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene (physical model) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Materials in UE4</t>
+  </si>
+  <si>
+    <t>Paper hand-in</t>
+  </si>
+  <si>
+    <t>Due Dates</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Presentation</t>
+  </si>
+  <si>
+    <t>CGP</t>
+  </si>
+  <si>
+    <t>UXD</t>
+  </si>
+  <si>
+    <t>Final hand-in</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,16 +214,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,17 +255,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +607,12 @@
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,279 +623,394 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7">
         <v>43036</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3">
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7">
+        <v>43070</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43036</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="3">
+        <v>43060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C12" s="7">
+        <v>43036</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="8">
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C13" s="3">
         <v>43036</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="8">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
         <v>43036</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7">
         <v>43036</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7">
         <v>43036</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3">
-        <v>43036</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D19" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43036</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43049</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43049</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43049</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43049</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43042</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7">
+        <v>43042</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="7">
         <v>43042</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="3">
-        <v>43042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3">
-        <v>43042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3">
-        <v>43042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="3">
-        <v>43042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3">
-        <v>43042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>23</v>
       </c>
       <c r="C33" s="3">
         <v>43042</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="3">
-        <v>43062</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>44</v>
+      <c r="C36" s="7">
+        <v>43042</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43049</v>
       </c>
     </row>
   </sheetData>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VGIS\Project Work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Subject</t>
   </si>
@@ -189,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,9 +287,9 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,18 +593,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,14 +666,17 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="7">
         <v>43062</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -711,6 +719,9 @@
       </c>
       <c r="J7" t="s">
         <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
       <c r="L7" s="3">
         <v>43070</v>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>Subject</t>
   </si>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,14 +747,17 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>43049</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -891,6 +894,9 @@
       <c r="C23" s="3">
         <v>43049</v>
       </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -902,6 +908,9 @@
       <c r="C24" s="3">
         <v>43049</v>
       </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -967,36 +976,45 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="7">
         <v>43042</v>
       </c>
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="7">
         <v>43042</v>
       </c>
+      <c r="D34" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="7">
         <v>43042</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,15 +1031,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C37" s="7">
         <v>43049</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Subject</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Article Continued</t>
+  </si>
+  <si>
+    <t>Should we have more intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - This could be about the robot itself</t>
   </si>
 </sst>
 </file>
@@ -604,7 +613,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,8 +823,11 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -828,8 +840,14 @@
       <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="3">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -842,8 +860,11 @@
       <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -857,12 +878,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -873,7 +894,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -884,7 +905,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -898,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -912,7 +933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -923,17 +944,17 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -947,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -961,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>Subject</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - This could be about the robot itself</t>
+  </si>
+  <si>
+    <t>Robot Picture in Method</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Operating Room Picture</t>
+  </si>
+  <si>
+    <t>Roles and Tasks Picture</t>
   </si>
 </sst>
 </file>
@@ -613,7 +625,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -840,14 +852,18 @@
       <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="3">
+      <c r="K17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7">
         <v>43059</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -864,7 +880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -877,13 +893,28 @@
       <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="3">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -893,8 +924,14 @@
       <c r="C21" s="3">
         <v>43049</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="3">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -904,8 +941,14 @@
       <c r="C22" s="3">
         <v>43049</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="3">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -919,7 +962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -933,7 +976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -944,17 +987,17 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -968,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -982,7 +1025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VGIS\Project Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Documents\Uni\VGIS7\Projekt\Project Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Subject</t>
   </si>
@@ -625,7 +625,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,17 +932,23 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>43049</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
       </c>
       <c r="L22" s="3">
         <v>43059</v>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Documents\Uni\VGIS7\Projekt\Project Work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Subject</t>
   </si>
@@ -210,12 +205,15 @@
   </si>
   <si>
     <t>Roles and Tasks Picture</t>
+  </si>
+  <si>
+    <t>Discussion (Future work / single vs multi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,9 +306,9 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,23 +612,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
@@ -995,6 +993,14 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicklas Christensen\Documents\AAU\7th Semester\Project Work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -213,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,9 +311,9 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,18 +617,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicklas Christensen\Documents\AAU\7th Semester\Project Work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>Subject</t>
   </si>
@@ -213,12 +208,54 @@
   </si>
   <si>
     <t>Discussion (Future work / single vs multi)</t>
+  </si>
+  <si>
+    <t>Fix Sources</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Fix Pictures</t>
+  </si>
+  <si>
+    <t>Tasks for 21-nov</t>
+  </si>
+  <si>
+    <t>Abstracts</t>
+  </si>
+  <si>
+    <t>Oliver fix youre figures pls</t>
+  </si>
+  <si>
+    <t>OliverPleblord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture of da vinci </t>
+  </si>
+  <si>
+    <t>Fix PC C if we use the new one in AVA</t>
+  </si>
+  <si>
+    <t>results for fake interview</t>
+  </si>
+  <si>
+    <t>axis labels on figures</t>
+  </si>
+  <si>
+    <t>Write discussion for fake results</t>
+  </si>
+  <si>
+    <t>Delete refrences to appendix</t>
+  </si>
+  <si>
+    <t>Go through XX's / Cite / sources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,9 +348,9 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,18 +654,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +673,7 @@
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
@@ -1009,73 +1046,62 @@
         <v>16</v>
       </c>
     </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="J33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="7">
-        <v>43042</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
-        <v>43042</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7">
-        <v>43042</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="7">
-        <v>43042</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>43042</v>
@@ -1084,12 +1110,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>43042</v>
@@ -1097,13 +1123,16 @@
       <c r="D35" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7">
         <v>43042</v>
@@ -1111,18 +1140,101 @@
       <c r="D36" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="7">
+        <v>43042</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="7">
+        <v>43042</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7">
+        <v>43042</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7">
+        <v>43042</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C41" s="7">
         <v>43049</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>Subject</t>
   </si>
@@ -243,13 +243,16 @@
     <t>axis labels on figures</t>
   </si>
   <si>
-    <t>Write discussion for fake results</t>
-  </si>
-  <si>
     <t>Delete refrences to appendix</t>
   </si>
   <si>
     <t>Go through XX's / Cite / sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write discussion for fake results </t>
+  </si>
+  <si>
+    <t>Tactile Feedback</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,7 +668,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s">
         <v>64</v>
@@ -1161,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
         <v>38</v>
@@ -1236,6 +1239,9 @@
       </c>
       <c r="D41" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicki\Documents\surgeon_sim_vr\Project Work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>Subject</t>
   </si>
@@ -253,12 +258,84 @@
   </si>
   <si>
     <t>Tactile Feedback</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAU Logo on front page </t>
+  </si>
+  <si>
+    <t>Title on front page</t>
+  </si>
+  <si>
+    <t>Format front page</t>
+  </si>
+  <si>
+    <t>Rules: New figure insert</t>
+  </si>
+  <si>
+    <t>Remove Training Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Field Study </t>
+  </si>
+  <si>
+    <t>Fix appendix</t>
+  </si>
+  <si>
+    <t>Finish FABRIK</t>
+  </si>
+  <si>
+    <t>Fix sources in problem statement</t>
+  </si>
+  <si>
+    <t>Screengrab example of grabbing in Shader</t>
+  </si>
+  <si>
+    <t>Add IK method to 3D Modelling</t>
+  </si>
+  <si>
+    <t>FABRIK table too small (make table)</t>
+  </si>
+  <si>
+    <t>Fix references</t>
+  </si>
+  <si>
+    <t>Add captions to figures in FABRIK</t>
+  </si>
+  <si>
+    <t>Fix sources in FABRIK</t>
+  </si>
+  <si>
+    <t>Fix table in FABRIK</t>
+  </si>
+  <si>
+    <t>Position flowchart correctly</t>
+  </si>
+  <si>
+    <t>Figure too large in internal test</t>
+  </si>
+  <si>
+    <t>Frederik</t>
+  </si>
+  <si>
+    <t>Niclas</t>
+  </si>
+  <si>
+    <t>Format in field studies (subsections)</t>
+  </si>
+  <si>
+    <t>Insert article reviews at end (appendix)</t>
+  </si>
+  <si>
+    <t>Final System insert pictures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,9 +428,9 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,31 +734,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,12 +772,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -726,7 +803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -743,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -754,7 +831,7 @@
         <v>43062</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -771,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -791,7 +868,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -802,7 +879,7 @@
         <v>43060</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -810,7 +887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -824,12 +901,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -852,7 +929,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -863,7 +940,7 @@
         <v>43036</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J14" s="4" t="s">
         <v>52</v>
       </c>
@@ -874,7 +951,7 @@
         <v>43087</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -882,7 +959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -906,7 +983,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -923,7 +1000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -943,7 +1020,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -957,7 +1034,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -974,7 +1051,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -997,7 +1074,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1025,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1113,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1044,17 +1121,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J29" t="s">
         <v>63</v>
       </c>
@@ -1063,7 +1140,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J30" t="s">
         <v>65</v>
       </c>
@@ -1072,7 +1149,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J31" t="s">
         <v>67</v>
       </c>
@@ -1080,7 +1157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J32" t="s">
         <v>68</v>
       </c>
@@ -1088,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
@@ -1113,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -1130,7 +1207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -1150,7 +1227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -1187,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -1207,7 +1284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1227,7 +1304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1242,6 +1319,238 @@
       </c>
       <c r="J41" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="7">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="3">
+        <v>43083</v>
       </c>
     </row>
   </sheetData>

--- a/Project Work/Writing.xlsx
+++ b/Project Work/Writing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicki\Documents\surgeon_sim_vr\Project Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niclas\Documents\UNI\VGIS7\Projekt\Project Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -744,21 +744,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="10" max="10" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,12 +772,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -803,7 +803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -820,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -831,7 +831,7 @@
         <v>43062</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -848,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -868,7 +868,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -879,7 +879,7 @@
         <v>43060</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -887,7 +887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -901,12 +901,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -929,7 +929,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -940,7 +940,7 @@
         <v>43036</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="4" t="s">
         <v>52</v>
       </c>
@@ -951,7 +951,7 @@
         <v>43087</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -959,7 +959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1121,17 +1121,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>63</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>65</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>67</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>68</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1321,12 +1321,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1359,29 +1359,29 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="3">
-        <v>43083</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="C48" s="7">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="3">
-        <v>43083</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C49" s="7">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>83</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>84</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1410,18 +1410,18 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="3">
-        <v>43083</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="7">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -1542,14 +1542,14 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="5">
         <v>43083</v>
       </c>
     </row>
